--- a/Encoder Case + BOM/LHR Encoder BOM.xlsx
+++ b/Encoder Case + BOM/LHR Encoder BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Item</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>8 input I/O Expander</t>
+  </si>
+  <si>
+    <t>If using the case you need these screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4x25MM </t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -90,6 +96,10 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -349,13 +359,25 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A2"/>
     <hyperlink r:id="rId2" ref="A3"/>
     <hyperlink r:id="rId3" ref="A4"/>
     <hyperlink r:id="rId4" ref="A5"/>
+    <hyperlink r:id="rId5" ref="A8"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>